--- a/results/tetris_gcc/test.xlsx
+++ b/results/tetris_gcc/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coldcat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C005386-B15C-4FC9-A1E6-7A86EB553C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53C65F3-6B93-4551-B46B-B401943981E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -218,17 +218,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -534,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -549,7 +552,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -566,29 +569,29 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -596,16 +599,16 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3">
-        <v>66</v>
-      </c>
-      <c r="C3">
-        <v>1.7309099999999999</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="5">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.64039400000000002</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3">
@@ -625,16 +628,16 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>0.37867099999999998</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="5">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.18781100000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4">
@@ -654,17 +657,17 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>3439</v>
-      </c>
-      <c r="C5">
-        <v>263.34500000000003</v>
-      </c>
-      <c r="D5">
-        <v>135</v>
-      </c>
-      <c r="E5">
-        <v>107</v>
+      <c r="B5" s="5">
+        <v>1498</v>
+      </c>
+      <c r="C5" s="5">
+        <v>100.456</v>
+      </c>
+      <c r="D5" s="5">
+        <v>180</v>
+      </c>
+      <c r="E5" s="5">
+        <v>118</v>
       </c>
       <c r="F5">
         <v>1498</v>
@@ -683,16 +686,16 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
-        <v>36</v>
-      </c>
-      <c r="C6">
-        <v>0.86832500000000001</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="5">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.33489400000000002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>0</v>
       </c>
       <c r="F6">
@@ -712,17 +715,17 @@
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>1221</v>
-      </c>
-      <c r="C7">
-        <v>97.9756</v>
-      </c>
-      <c r="D7">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>13</v>
+      <c r="B7" s="5">
+        <v>532</v>
+      </c>
+      <c r="C7" s="5">
+        <v>33.592799999999997</v>
+      </c>
+      <c r="D7" s="5">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5">
+        <v>16</v>
       </c>
       <c r="F7">
         <v>532</v>
@@ -741,17 +744,17 @@
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8">
-        <v>1776</v>
-      </c>
-      <c r="C8">
-        <v>143.81100000000001</v>
-      </c>
-      <c r="D8">
-        <v>35</v>
-      </c>
-      <c r="E8">
-        <v>34</v>
+      <c r="B8" s="5">
+        <v>771</v>
+      </c>
+      <c r="C8" s="5">
+        <v>54.041400000000003</v>
+      </c>
+      <c r="D8" s="5">
+        <v>85</v>
+      </c>
+      <c r="E8" s="5">
+        <v>42</v>
       </c>
       <c r="F8">
         <v>771</v>
@@ -770,17 +773,17 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>954</v>
-      </c>
-      <c r="C9">
-        <v>62.9983</v>
-      </c>
-      <c r="D9">
-        <v>42</v>
-      </c>
-      <c r="E9">
-        <v>23</v>
+      <c r="B9" s="5">
+        <v>415</v>
+      </c>
+      <c r="C9" s="5">
+        <v>21.8369</v>
+      </c>
+      <c r="D9" s="5">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20</v>
       </c>
       <c r="F9">
         <v>415</v>
@@ -799,17 +802,17 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
-        <v>6050</v>
-      </c>
-      <c r="C10">
-        <v>488.58699999999999</v>
-      </c>
-      <c r="D10">
-        <v>238</v>
-      </c>
-      <c r="E10">
-        <v>155</v>
+      <c r="B10" s="5">
+        <v>2644</v>
+      </c>
+      <c r="C10" s="5">
+        <v>181.029</v>
+      </c>
+      <c r="D10" s="5">
+        <v>248</v>
+      </c>
+      <c r="E10" s="5">
+        <v>165</v>
       </c>
       <c r="F10">
         <v>2644</v>
@@ -828,17 +831,17 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1914</v>
-      </c>
-      <c r="C11">
-        <v>157.93899999999999</v>
-      </c>
-      <c r="D11">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>47</v>
+      <c r="B11" s="5">
+        <v>833</v>
+      </c>
+      <c r="C11" s="5">
+        <v>53.680500000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5">
+        <v>39</v>
       </c>
       <c r="F11">
         <v>833</v>
@@ -857,17 +860,17 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>52</v>
-      </c>
-      <c r="C12">
-        <v>1.92506</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="B12" s="5">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.66585700000000003</v>
+      </c>
+      <c r="D12" s="5">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
       </c>
       <c r="F12">
         <v>22</v>
@@ -886,17 +889,17 @@
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13">
-        <v>1206</v>
-      </c>
-      <c r="C13">
-        <v>74.578400000000002</v>
-      </c>
-      <c r="D13">
-        <v>39</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
+      <c r="B13" s="5">
+        <v>525</v>
+      </c>
+      <c r="C13" s="5">
+        <v>27.046099999999999</v>
+      </c>
+      <c r="D13" s="5">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5">
+        <v>11</v>
       </c>
       <c r="F13">
         <v>525</v>
@@ -915,17 +918,17 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
-        <v>1336</v>
-      </c>
-      <c r="C14">
-        <v>95.855400000000003</v>
-      </c>
-      <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <v>19</v>
+      <c r="B14" s="5">
+        <v>598</v>
+      </c>
+      <c r="C14" s="5">
+        <v>36.046900000000001</v>
+      </c>
+      <c r="D14" s="5">
+        <v>105</v>
+      </c>
+      <c r="E14" s="5">
+        <v>14</v>
       </c>
       <c r="F14">
         <v>598</v>
@@ -944,16 +947,16 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
-        <v>480</v>
-      </c>
-      <c r="C15">
-        <v>30.765899999999998</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="5">
+        <v>90</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2.35975</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <v>0</v>
       </c>
       <c r="F15">
@@ -973,16 +976,16 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
-        <v>633</v>
-      </c>
-      <c r="C16">
-        <v>61.843699999999998</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="B16" s="5">
+        <v>120</v>
+      </c>
+      <c r="C16" s="5">
+        <v>4.7416200000000002</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
         <v>0</v>
       </c>
       <c r="F16">
@@ -1002,16 +1005,16 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17">
-        <v>786</v>
-      </c>
-      <c r="C17">
-        <v>99.7423</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="5">
+        <v>150</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7.5879700000000003</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
         <v>0</v>
       </c>
       <c r="F17">
@@ -1031,17 +1034,17 @@
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>4813</v>
-      </c>
-      <c r="C18">
-        <v>471.34199999999998</v>
-      </c>
-      <c r="D18">
-        <v>123</v>
-      </c>
-      <c r="E18">
-        <v>113</v>
+      <c r="B18" s="5">
+        <v>2100</v>
+      </c>
+      <c r="C18" s="5">
+        <v>159.09800000000001</v>
+      </c>
+      <c r="D18" s="5">
+        <v>171</v>
+      </c>
+      <c r="E18" s="5">
+        <v>92</v>
       </c>
       <c r="F18">
         <v>2100</v>
@@ -1060,16 +1063,16 @@
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>0.88218600000000003</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="5">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.378853</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
         <v>0</v>
       </c>
       <c r="F19">
@@ -1089,17 +1092,17 @@
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20">
-        <v>1776</v>
-      </c>
-      <c r="C20">
-        <v>140.80500000000001</v>
-      </c>
-      <c r="D20">
-        <v>35</v>
-      </c>
-      <c r="E20">
-        <v>28</v>
+      <c r="B20" s="5">
+        <v>771</v>
+      </c>
+      <c r="C20" s="5">
+        <v>52.457500000000003</v>
+      </c>
+      <c r="D20" s="5">
+        <v>85</v>
+      </c>
+      <c r="E20" s="5">
+        <v>30</v>
       </c>
       <c r="F20">
         <v>771</v>
@@ -1118,17 +1121,17 @@
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
-        <v>512</v>
-      </c>
-      <c r="C21">
-        <v>58.2423</v>
-      </c>
-      <c r="D21">
-        <v>61</v>
-      </c>
-      <c r="E21">
-        <v>41</v>
+      <c r="B21" s="5">
+        <v>240</v>
+      </c>
+      <c r="C21" s="5">
+        <v>26.330100000000002</v>
+      </c>
+      <c r="D21" s="5">
+        <v>68</v>
+      </c>
+      <c r="E21" s="5">
+        <v>47</v>
       </c>
       <c r="F21">
         <v>240</v>
@@ -1147,17 +1150,17 @@
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>3213</v>
-      </c>
-      <c r="C22">
-        <v>256.18799999999999</v>
-      </c>
-      <c r="D22">
-        <v>115</v>
-      </c>
-      <c r="E22">
-        <v>106</v>
+      <c r="B22" s="5">
+        <v>1405</v>
+      </c>
+      <c r="C22" s="5">
+        <v>97.588800000000006</v>
+      </c>
+      <c r="D22" s="5">
+        <v>198</v>
+      </c>
+      <c r="E22" s="5">
+        <v>95</v>
       </c>
       <c r="F22">
         <v>1405</v>
@@ -1176,17 +1179,17 @@
       <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23">
-        <v>1043</v>
-      </c>
-      <c r="C23">
-        <v>84.991799999999998</v>
-      </c>
-      <c r="D23">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>17</v>
+      <c r="B23" s="5">
+        <v>448</v>
+      </c>
+      <c r="C23" s="5">
+        <v>25.192299999999999</v>
+      </c>
+      <c r="D23" s="5">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5">
+        <v>14</v>
       </c>
       <c r="F23">
         <v>448</v>
@@ -1205,17 +1208,17 @@
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>1291</v>
-      </c>
-      <c r="C24">
-        <v>95.374700000000004</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="5">
+        <v>564</v>
+      </c>
+      <c r="C24" s="5">
+        <v>38.283099999999997</v>
+      </c>
+      <c r="D24" s="5">
         <v>31</v>
       </c>
-      <c r="E24">
-        <v>20</v>
+      <c r="E24" s="5">
+        <v>15</v>
       </c>
       <c r="F24">
         <v>564</v>
@@ -1234,17 +1237,17 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>5321</v>
-      </c>
-      <c r="C25">
-        <v>437.39600000000002</v>
-      </c>
-      <c r="D25">
-        <v>158</v>
-      </c>
-      <c r="E25">
-        <v>170</v>
+      <c r="B25" s="5">
+        <v>2319</v>
+      </c>
+      <c r="C25" s="5">
+        <v>158.41800000000001</v>
+      </c>
+      <c r="D25" s="5">
+        <v>380</v>
+      </c>
+      <c r="E25" s="5">
+        <v>143</v>
       </c>
       <c r="F25">
         <v>2319</v>
@@ -1263,17 +1266,17 @@
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
-        <v>343</v>
-      </c>
-      <c r="C26">
-        <v>21.330100000000002</v>
-      </c>
-      <c r="D26">
-        <v>22</v>
-      </c>
-      <c r="E26">
-        <v>8</v>
+      <c r="B26" s="5">
+        <v>154</v>
+      </c>
+      <c r="C26" s="5">
+        <v>8.9688199999999991</v>
+      </c>
+      <c r="D26" s="5">
+        <v>17</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
       </c>
       <c r="F26">
         <v>154</v>
@@ -1292,17 +1295,17 @@
       <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B27">
-        <v>781</v>
-      </c>
-      <c r="C27">
-        <v>50.214500000000001</v>
-      </c>
-      <c r="D27">
-        <v>8</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
+      <c r="B27" s="5">
+        <v>336</v>
+      </c>
+      <c r="C27" s="5">
+        <v>15.498200000000001</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
       </c>
       <c r="F27">
         <v>336</v>
@@ -1321,17 +1324,17 @@
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
-        <v>778</v>
-      </c>
-      <c r="C28">
-        <v>55.242899999999999</v>
-      </c>
-      <c r="D28">
-        <v>12</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
+      <c r="B28" s="5">
+        <v>336</v>
+      </c>
+      <c r="C28" s="5">
+        <v>18.9253</v>
+      </c>
+      <c r="D28" s="5">
+        <v>64</v>
+      </c>
+      <c r="E28" s="5">
+        <v>5</v>
       </c>
       <c r="F28">
         <v>336</v>
@@ -1350,17 +1353,17 @@
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29">
-        <v>1993</v>
-      </c>
-      <c r="C29">
-        <v>149.11000000000001</v>
-      </c>
-      <c r="D29">
-        <v>72</v>
-      </c>
-      <c r="E29">
-        <v>67</v>
+      <c r="B29" s="5">
+        <v>869</v>
+      </c>
+      <c r="C29" s="5">
+        <v>57.002000000000002</v>
+      </c>
+      <c r="D29" s="5">
+        <v>85</v>
+      </c>
+      <c r="E29" s="5">
+        <v>45</v>
       </c>
       <c r="F29">
         <v>869</v>
@@ -1379,17 +1382,17 @@
       <c r="A30" t="s">
         <v>13</v>
       </c>
-      <c r="B30">
-        <v>7630</v>
-      </c>
-      <c r="C30">
-        <v>818.31899999999996</v>
-      </c>
-      <c r="D30">
-        <v>325</v>
-      </c>
-      <c r="E30">
-        <v>205</v>
+      <c r="B30" s="5">
+        <v>3089</v>
+      </c>
+      <c r="C30" s="5">
+        <v>264.61799999999999</v>
+      </c>
+      <c r="D30" s="5">
+        <v>499</v>
+      </c>
+      <c r="E30" s="5">
+        <v>225</v>
       </c>
       <c r="F30">
         <v>3089</v>
@@ -1408,17 +1411,17 @@
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
-        <v>3888</v>
-      </c>
-      <c r="C31">
-        <v>350.33</v>
-      </c>
-      <c r="D31">
-        <v>55</v>
-      </c>
-      <c r="E31">
-        <v>32</v>
+      <c r="B31" s="5">
+        <v>1701</v>
+      </c>
+      <c r="C31" s="5">
+        <v>137.40199999999999</v>
+      </c>
+      <c r="D31" s="5">
+        <v>88</v>
+      </c>
+      <c r="E31" s="5">
+        <v>35</v>
       </c>
       <c r="F31">
         <v>1701</v>
@@ -1437,17 +1440,17 @@
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
-        <v>986</v>
-      </c>
-      <c r="C32">
-        <v>71.454400000000007</v>
-      </c>
-      <c r="D32">
-        <v>40</v>
-      </c>
-      <c r="E32">
-        <v>18</v>
+      <c r="B32" s="5">
+        <v>427</v>
+      </c>
+      <c r="C32" s="5">
+        <v>24.061800000000002</v>
+      </c>
+      <c r="D32" s="5">
+        <v>44</v>
+      </c>
+      <c r="E32" s="5">
+        <v>22</v>
       </c>
       <c r="F32">
         <v>427</v>
@@ -1466,17 +1469,17 @@
       <c r="A33" t="s">
         <v>17</v>
       </c>
-      <c r="B33">
-        <v>3073</v>
-      </c>
-      <c r="C33">
-        <v>237.815</v>
-      </c>
-      <c r="D33">
-        <v>107</v>
-      </c>
-      <c r="E33">
-        <v>71</v>
+      <c r="B33" s="5">
+        <v>1343</v>
+      </c>
+      <c r="C33" s="5">
+        <v>90.014099999999999</v>
+      </c>
+      <c r="D33" s="5">
+        <v>189</v>
+      </c>
+      <c r="E33" s="5">
+        <v>94</v>
       </c>
       <c r="F33">
         <v>1343</v>
